--- a/domain/sku_0.1.xlsx
+++ b/domain/sku_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\PycharmProjects\MagicDoors\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6085F0-FA4E-4AE3-A8A2-34F15DC3361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6353E8C0-6305-4D1E-B057-EEFCC239612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="20175" windowHeight="10080" tabRatio="731" firstSheet="4" activeTab="11" xr2:uid="{EAF69DBF-086B-4B7E-B77A-D8D769677810}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="731" firstSheet="5" activeTab="12" xr2:uid="{EAF69DBF-086B-4B7E-B77A-D8D769677810}"/>
   </bookViews>
   <sheets>
     <sheet name="BRAGA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="hardware" sheetId="14" r:id="rId10"/>
     <sheet name="Front" sheetId="15" r:id="rId11"/>
     <sheet name="Customizers" sheetId="20" r:id="rId12"/>
-    <sheet name="משפחות מוצר" sheetId="3" state="hidden" r:id="rId13"/>
+    <sheet name="Component Changers" sheetId="21" r:id="rId13"/>
+    <sheet name="משפחות מוצר" sheetId="3" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="484">
   <si>
     <t>BRAGA ITEM CODE</t>
   </si>
@@ -1450,6 +1450,57 @@
   </si>
   <si>
     <t>mdl_2_set_aqua</t>
+  </si>
+  <si>
+    <t>עופרת 0.5 מ"מ</t>
+  </si>
+  <si>
+    <t>dim103</t>
+  </si>
+  <si>
+    <t>structure_changer</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>mdl_1_aqua,mdl_2_set_aqua,p102</t>
+  </si>
+  <si>
+    <t>components_to_remove</t>
+  </si>
+  <si>
+    <t>components_to_add</t>
+  </si>
+  <si>
+    <t>Qty_to_add</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>cover_material</t>
+  </si>
+  <si>
+    <t>filling_material</t>
+  </si>
+  <si>
+    <t>Lead_05</t>
+  </si>
+  <si>
+    <t>dim104</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>msh_flex100</t>
+  </si>
+  <si>
+    <t>msh_flex200</t>
+  </si>
+  <si>
+    <t>msh_flex300</t>
   </si>
 </sst>
 </file>
@@ -3017,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4424B-4F23-4D68-ACD8-1C6B01F5D2CC}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3090,12 +3141,174 @@
         <v>418</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CCFDFF-6A99-41F9-B9BE-DB40FAD3B006}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.8125" customWidth="1"/>
+    <col min="5" max="5" width="30.3125" customWidth="1"/>
+    <col min="6" max="6" width="24.3125" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F00000-F10B-4BEE-80A9-D3D53AA2CB58}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AK32"/>
@@ -5036,7 +5249,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -5132,10 +5345,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0404A7-B954-4095-9B9E-2B5C135EA8C3}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -5879,6 +6092,29 @@
       </c>
       <c r="G32" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G33" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
